--- a/posesiones/1485980.xlsx
+++ b/posesiones/1485980.xlsx
@@ -1901,10 +1901,10 @@
         <v>1</v>
       </c>
       <c r="P3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -1945,7 +1945,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -1995,7 +1995,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -2045,7 +2045,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -2095,7 +2095,7 @@
         <v>1</v>
       </c>
       <c r="Q7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R7">
         <v>14</v>
@@ -2145,7 +2145,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -2195,7 +2195,7 @@
         <v>1</v>
       </c>
       <c r="Q9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R9">
         <v>16</v>
@@ -2248,7 +2248,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:18">
@@ -2298,7 +2298,7 @@
         <v>1</v>
       </c>
       <c r="Q11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R11">
         <v>21</v>
@@ -2351,7 +2351,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:18">
@@ -2401,7 +2401,7 @@
         <v>1</v>
       </c>
       <c r="Q13">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R13">
         <v>9</v>
@@ -2454,7 +2454,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:18">
@@ -2504,7 +2504,7 @@
         <v>1</v>
       </c>
       <c r="Q15">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R15">
         <v>6</v>
@@ -2554,7 +2554,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:18">
@@ -2604,7 +2604,7 @@
         <v>1</v>
       </c>
       <c r="Q17">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R17">
         <v>20</v>
@@ -2654,7 +2654,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:18">
@@ -2704,7 +2704,7 @@
         <v>1</v>
       </c>
       <c r="Q19">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="R19">
         <v>13</v>
@@ -2754,7 +2754,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:18">
@@ -2804,7 +2804,7 @@
         <v>1</v>
       </c>
       <c r="Q21">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="R21">
         <v>22</v>
@@ -2857,7 +2857,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23" spans="1:18">
@@ -2907,7 +2907,7 @@
         <v>1</v>
       </c>
       <c r="Q23">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="R23">
         <v>10</v>
@@ -2960,7 +2960,7 @@
         <v>1</v>
       </c>
       <c r="Q24">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="R24">
         <v>20</v>
@@ -3013,7 +3013,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26" spans="1:18">
@@ -3060,7 +3060,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27" spans="1:18">
@@ -3107,7 +3107,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28" spans="1:18">
@@ -3154,7 +3154,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29" spans="1:18">
@@ -3201,7 +3201,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30" spans="1:18">
@@ -3251,7 +3251,7 @@
         <v>1</v>
       </c>
       <c r="Q30">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="R30">
         <v>30</v>
@@ -3301,7 +3301,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="32" spans="1:18">
@@ -3348,7 +3348,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="33" spans="1:18">
@@ -3398,7 +3398,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="34" spans="1:18">
@@ -3445,7 +3445,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="35" spans="1:18">
@@ -3495,7 +3495,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="36" spans="1:18">
@@ -3545,7 +3545,7 @@
         <v>1</v>
       </c>
       <c r="Q36">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="R36">
         <v>35</v>
@@ -3598,7 +3598,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" spans="1:18">
@@ -3648,7 +3648,7 @@
         <v>1</v>
       </c>
       <c r="Q38">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="R38">
         <v>6</v>
@@ -3701,7 +3701,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="40" spans="1:18">
@@ -3748,7 +3748,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="41" spans="1:18">
@@ -3795,7 +3795,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="42" spans="1:18">
@@ -3842,7 +3842,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="43" spans="1:18">
@@ -3892,7 +3892,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="44" spans="1:18">
@@ -3942,7 +3942,7 @@
         <v>1</v>
       </c>
       <c r="Q44">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="R44">
         <v>28</v>
@@ -3995,7 +3995,7 @@
         <v>1</v>
       </c>
       <c r="Q45">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="R45">
         <v>6</v>
@@ -4045,7 +4045,7 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="47" spans="1:18">
@@ -4095,7 +4095,7 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="48" spans="1:18">
@@ -4145,7 +4145,7 @@
         <v>1</v>
       </c>
       <c r="Q48">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R48">
         <v>6</v>
@@ -4195,7 +4195,7 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" spans="1:18">
@@ -4242,7 +4242,7 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" spans="1:18">
@@ -4289,7 +4289,7 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" spans="1:18">
@@ -4336,7 +4336,7 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" spans="1:18">
@@ -4386,7 +4386,7 @@
         <v>1</v>
       </c>
       <c r="Q53">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="R53">
         <v>29</v>
@@ -4436,7 +4436,7 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="55" spans="1:18">
@@ -4486,7 +4486,7 @@
         <v>1</v>
       </c>
       <c r="Q55">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R55">
         <v>19</v>
@@ -4536,7 +4536,7 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="57" spans="1:18">
@@ -4586,7 +4586,7 @@
         <v>1</v>
       </c>
       <c r="Q57">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="R57">
         <v>5</v>
@@ -4633,7 +4633,7 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="59" spans="1:18">
@@ -4683,7 +4683,7 @@
         <v>1</v>
       </c>
       <c r="Q59">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="R59">
         <v>22</v>
@@ -4736,7 +4736,7 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="61" spans="1:18">
@@ -4786,7 +4786,7 @@
         <v>1</v>
       </c>
       <c r="Q61">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R61">
         <v>5</v>
@@ -4836,7 +4836,7 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="63" spans="1:18">
@@ -4883,7 +4883,7 @@
         <v>0</v>
       </c>
       <c r="Q63">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="64" spans="1:18">
@@ -4930,7 +4930,7 @@
         <v>0</v>
       </c>
       <c r="Q64">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="65" spans="1:18">
@@ -4977,7 +4977,7 @@
         <v>0</v>
       </c>
       <c r="Q65">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="66" spans="1:18">
@@ -5027,7 +5027,7 @@
         <v>1</v>
       </c>
       <c r="Q66">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R66">
         <v>0</v>
@@ -5080,7 +5080,7 @@
         <v>0</v>
       </c>
       <c r="Q67">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="68" spans="1:18">
@@ -5127,7 +5127,7 @@
         <v>0</v>
       </c>
       <c r="Q68">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="69" spans="1:18">
@@ -5177,7 +5177,7 @@
         <v>0</v>
       </c>
       <c r="Q69">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="70" spans="1:18">
@@ -5227,7 +5227,7 @@
         <v>1</v>
       </c>
       <c r="Q70">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R70">
         <v>15</v>
@@ -5277,7 +5277,7 @@
         <v>0</v>
       </c>
       <c r="Q71">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="72" spans="1:18">
@@ -5324,7 +5324,7 @@
         <v>0</v>
       </c>
       <c r="Q72">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="73" spans="1:18">
@@ -5371,7 +5371,7 @@
         <v>0</v>
       </c>
       <c r="Q73">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="74" spans="1:18">
@@ -5418,7 +5418,7 @@
         <v>0</v>
       </c>
       <c r="Q74">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="75" spans="1:18">
@@ -5465,7 +5465,7 @@
         <v>0</v>
       </c>
       <c r="Q75">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="76" spans="1:18">
@@ -5515,7 +5515,7 @@
         <v>1</v>
       </c>
       <c r="Q76">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="R76">
         <v>0</v>
@@ -5565,7 +5565,7 @@
         <v>0</v>
       </c>
       <c r="Q77">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="78" spans="1:18">
@@ -5612,7 +5612,7 @@
         <v>0</v>
       </c>
       <c r="Q78">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="79" spans="1:18">
@@ -5659,7 +5659,7 @@
         <v>0</v>
       </c>
       <c r="Q79">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="80" spans="1:18">
@@ -5709,7 +5709,7 @@
         <v>1</v>
       </c>
       <c r="Q80">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="R80">
         <v>14</v>
@@ -5762,7 +5762,7 @@
         <v>1</v>
       </c>
       <c r="Q81">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="R81">
         <v>21</v>
@@ -5815,7 +5815,7 @@
         <v>0</v>
       </c>
       <c r="Q82">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="83" spans="1:18">
@@ -5865,7 +5865,7 @@
         <v>1</v>
       </c>
       <c r="Q83">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="R83">
         <v>12</v>
@@ -5915,7 +5915,7 @@
         <v>0</v>
       </c>
       <c r="Q84">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="85" spans="1:18">
@@ -5962,7 +5962,7 @@
         <v>0</v>
       </c>
       <c r="Q85">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="86" spans="1:18">
@@ -6009,7 +6009,7 @@
         <v>0</v>
       </c>
       <c r="Q86">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="87" spans="1:18">
@@ -6056,7 +6056,7 @@
         <v>0</v>
       </c>
       <c r="Q87">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="88" spans="1:18">
@@ -6103,7 +6103,7 @@
         <v>0</v>
       </c>
       <c r="Q88">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="89" spans="1:18">
@@ -6153,7 +6153,7 @@
         <v>1</v>
       </c>
       <c r="Q89">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="R89">
         <v>5</v>
@@ -6203,7 +6203,7 @@
         <v>0</v>
       </c>
       <c r="Q90">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="91" spans="1:18">
@@ -6253,7 +6253,7 @@
         <v>0</v>
       </c>
       <c r="Q91">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="92" spans="1:18">
@@ -6303,7 +6303,7 @@
         <v>1</v>
       </c>
       <c r="Q92">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="R92">
         <v>19</v>
@@ -6356,7 +6356,7 @@
         <v>0</v>
       </c>
       <c r="Q93">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="94" spans="1:18">
@@ -6403,7 +6403,7 @@
         <v>0</v>
       </c>
       <c r="Q94">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="95" spans="1:18">
@@ -6456,7 +6456,7 @@
         <v>1</v>
       </c>
       <c r="Q95">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R95">
         <v>9</v>
@@ -6506,7 +6506,7 @@
         <v>0</v>
       </c>
       <c r="Q96">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="97" spans="1:18">
@@ -6553,7 +6553,7 @@
         <v>0</v>
       </c>
       <c r="Q97">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="98" spans="1:18">
@@ -6600,7 +6600,7 @@
         <v>0</v>
       </c>
       <c r="Q98">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="99" spans="1:18">
@@ -6647,7 +6647,7 @@
         <v>0</v>
       </c>
       <c r="Q99">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="100" spans="1:18">
@@ -6694,7 +6694,7 @@
         <v>0</v>
       </c>
       <c r="Q100">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="101" spans="1:18">
@@ -6744,7 +6744,7 @@
         <v>1</v>
       </c>
       <c r="Q101">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R101">
         <v>12</v>
@@ -6797,7 +6797,7 @@
         <v>0</v>
       </c>
       <c r="Q102">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="103" spans="1:18">
@@ -6847,7 +6847,7 @@
         <v>1</v>
       </c>
       <c r="Q103">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R103">
         <v>8</v>
@@ -6897,7 +6897,7 @@
         <v>0</v>
       </c>
       <c r="Q104">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="105" spans="1:18">
@@ -6947,7 +6947,7 @@
         <v>0</v>
       </c>
       <c r="Q105">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="106" spans="1:18">
@@ -6997,7 +6997,7 @@
         <v>1</v>
       </c>
       <c r="Q106">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R106">
         <v>12</v>
@@ -7050,7 +7050,7 @@
         <v>0</v>
       </c>
       <c r="Q107">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="108" spans="1:18">
@@ -7100,7 +7100,7 @@
         <v>1</v>
       </c>
       <c r="Q108">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="R108">
         <v>6</v>
@@ -7150,7 +7150,7 @@
         <v>0</v>
       </c>
       <c r="Q109">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="110" spans="1:18">
@@ -7200,7 +7200,7 @@
         <v>1</v>
       </c>
       <c r="Q110">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="R110">
         <v>28</v>
@@ -7250,7 +7250,7 @@
         <v>0</v>
       </c>
       <c r="Q111">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="112" spans="1:18">
@@ -7300,7 +7300,7 @@
         <v>1</v>
       </c>
       <c r="Q112">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="R112">
         <v>19</v>
@@ -7350,7 +7350,7 @@
         <v>0</v>
       </c>
       <c r="Q113">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="114" spans="1:18">
@@ -7397,7 +7397,7 @@
         <v>1</v>
       </c>
       <c r="Q114">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="R114">
         <v>26</v>
@@ -7447,7 +7447,7 @@
         <v>0</v>
       </c>
       <c r="Q115">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="116" spans="1:18">
@@ -7494,7 +7494,7 @@
         <v>0</v>
       </c>
       <c r="Q116">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="117" spans="1:18">
@@ -7541,7 +7541,7 @@
         <v>0</v>
       </c>
       <c r="Q117">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="118" spans="1:18">
@@ -7588,7 +7588,7 @@
         <v>0</v>
       </c>
       <c r="Q118">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="119" spans="1:18">
@@ -7635,7 +7635,7 @@
         <v>0</v>
       </c>
       <c r="Q119">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="120" spans="1:18">
@@ -7682,7 +7682,7 @@
         <v>0</v>
       </c>
       <c r="Q120">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="121" spans="1:18">
@@ -7732,7 +7732,7 @@
         <v>1</v>
       </c>
       <c r="Q121">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="R121">
         <v>18</v>
@@ -7785,7 +7785,7 @@
         <v>0</v>
       </c>
       <c r="Q122">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="123" spans="1:18">
@@ -7835,7 +7835,7 @@
         <v>1</v>
       </c>
       <c r="Q123">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="R123">
         <v>11</v>
@@ -7888,7 +7888,7 @@
         <v>0</v>
       </c>
       <c r="Q124">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="125" spans="1:18">
@@ -7935,7 +7935,7 @@
         <v>0</v>
       </c>
       <c r="Q125">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="126" spans="1:18">
@@ -7985,7 +7985,7 @@
         <v>0</v>
       </c>
       <c r="Q126">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="127" spans="1:18">
@@ -8035,7 +8035,7 @@
         <v>1</v>
       </c>
       <c r="Q127">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="R127">
         <v>15</v>
@@ -8088,7 +8088,7 @@
         <v>0</v>
       </c>
       <c r="Q128">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="129" spans="1:18">
@@ -8135,7 +8135,7 @@
         <v>0</v>
       </c>
       <c r="Q129">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="130" spans="1:18">
@@ -8182,7 +8182,7 @@
         <v>0</v>
       </c>
       <c r="Q130">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="131" spans="1:18">
@@ -8229,7 +8229,7 @@
         <v>0</v>
       </c>
       <c r="Q131">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="132" spans="1:18">
@@ -8279,7 +8279,7 @@
         <v>1</v>
       </c>
       <c r="Q132">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R132">
         <v>0</v>
@@ -8329,7 +8329,7 @@
         <v>0</v>
       </c>
       <c r="Q133">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="134" spans="1:18">
@@ -8376,7 +8376,7 @@
         <v>0</v>
       </c>
       <c r="Q134">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="135" spans="1:18">
@@ -8426,7 +8426,7 @@
         <v>1</v>
       </c>
       <c r="Q135">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="R135">
         <v>4</v>
@@ -8470,10 +8470,10 @@
         <v>1</v>
       </c>
       <c r="P136" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q136">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="137" spans="1:18">
@@ -8520,7 +8520,7 @@
         <v>0</v>
       </c>
       <c r="Q137">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="138" spans="1:18">
@@ -8567,7 +8567,7 @@
         <v>0</v>
       </c>
       <c r="Q138">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="139" spans="1:18">
@@ -8608,10 +8608,10 @@
         <v>1</v>
       </c>
       <c r="P139" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q139">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="140" spans="1:18">
@@ -8658,7 +8658,7 @@
         <v>0</v>
       </c>
       <c r="Q140">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="141" spans="1:18">
@@ -8705,7 +8705,7 @@
         <v>0</v>
       </c>
       <c r="Q141">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="142" spans="1:18">
@@ -8752,7 +8752,7 @@
         <v>0</v>
       </c>
       <c r="Q142">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="143" spans="1:18">
@@ -8799,7 +8799,7 @@
         <v>0</v>
       </c>
       <c r="Q143">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="144" spans="1:18">
@@ -8849,7 +8849,7 @@
         <v>1</v>
       </c>
       <c r="Q144">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="R144">
         <v>29</v>
@@ -8902,7 +8902,7 @@
         <v>1</v>
       </c>
       <c r="Q145">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="R145">
         <v>16</v>
@@ -8955,7 +8955,7 @@
         <v>0</v>
       </c>
       <c r="Q146">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="147" spans="1:18">
@@ -9002,7 +9002,7 @@
         <v>0</v>
       </c>
       <c r="Q147">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="148" spans="1:18">
@@ -9049,7 +9049,7 @@
         <v>0</v>
       </c>
       <c r="Q148">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="149" spans="1:18">
@@ -9096,7 +9096,7 @@
         <v>0</v>
       </c>
       <c r="Q149">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="150" spans="1:18">
@@ -9143,7 +9143,7 @@
         <v>0</v>
       </c>
       <c r="Q150">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="151" spans="1:18">
@@ -9190,7 +9190,7 @@
         <v>0</v>
       </c>
       <c r="Q151">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="152" spans="1:18">
@@ -9237,7 +9237,7 @@
         <v>0</v>
       </c>
       <c r="Q152">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="153" spans="1:18">
@@ -9287,7 +9287,7 @@
         <v>1</v>
       </c>
       <c r="Q153">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="R153">
         <v>19</v>
@@ -9337,7 +9337,7 @@
         <v>0</v>
       </c>
       <c r="Q154">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="155" spans="1:18">
@@ -9387,7 +9387,7 @@
         <v>1</v>
       </c>
       <c r="Q155">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="R155">
         <v>19</v>
@@ -9440,7 +9440,7 @@
         <v>1</v>
       </c>
       <c r="Q156">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="R156">
         <v>8</v>
@@ -9493,7 +9493,7 @@
         <v>1</v>
       </c>
       <c r="Q157">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="R157">
         <v>18</v>
@@ -9543,7 +9543,7 @@
         <v>0</v>
       </c>
       <c r="Q158">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="159" spans="1:18">
@@ -9593,7 +9593,7 @@
         <v>1</v>
       </c>
       <c r="Q159">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="R159">
         <v>3</v>
@@ -9643,7 +9643,7 @@
         <v>0</v>
       </c>
       <c r="Q160">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="161" spans="1:18">
@@ -9687,7 +9687,7 @@
         <v>0</v>
       </c>
       <c r="Q161">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="162" spans="1:18">
@@ -9734,7 +9734,7 @@
         <v>0</v>
       </c>
       <c r="Q162">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="163" spans="1:18">
@@ -9781,7 +9781,7 @@
         <v>0</v>
       </c>
       <c r="Q163">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="164" spans="1:18">
@@ -9828,7 +9828,7 @@
         <v>0</v>
       </c>
       <c r="Q164">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="165" spans="1:18">
@@ -9875,7 +9875,7 @@
         <v>0</v>
       </c>
       <c r="Q165">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="166" spans="1:18">
@@ -9922,7 +9922,7 @@
         <v>0</v>
       </c>
       <c r="Q166">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="167" spans="1:18">
@@ -9972,7 +9972,7 @@
         <v>0</v>
       </c>
       <c r="Q167">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="168" spans="1:18">
@@ -10019,7 +10019,7 @@
         <v>0</v>
       </c>
       <c r="Q168">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="169" spans="1:18">
@@ -10066,7 +10066,7 @@
         <v>0</v>
       </c>
       <c r="Q169">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="170" spans="1:18">
@@ -10116,7 +10116,7 @@
         <v>1</v>
       </c>
       <c r="Q170">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="R170">
         <v>25</v>
@@ -10166,7 +10166,7 @@
         <v>0</v>
       </c>
       <c r="Q171">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="172" spans="1:18">
@@ -10213,7 +10213,7 @@
         <v>1</v>
       </c>
       <c r="Q172">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="R172">
         <v>24</v>
@@ -10266,7 +10266,7 @@
         <v>1</v>
       </c>
       <c r="Q173">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="R173">
         <v>15</v>
@@ -10319,7 +10319,7 @@
         <v>1</v>
       </c>
       <c r="Q174">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="R174">
         <v>10</v>
@@ -10369,7 +10369,7 @@
         <v>0</v>
       </c>
       <c r="Q175">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="176" spans="1:18">
@@ -10416,7 +10416,7 @@
         <v>0</v>
       </c>
       <c r="Q176">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="177" spans="1:18">
@@ -10463,7 +10463,7 @@
         <v>0</v>
       </c>
       <c r="Q177">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="178" spans="1:18">
@@ -10510,7 +10510,7 @@
         <v>0</v>
       </c>
       <c r="Q178">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="179" spans="1:18">
@@ -10557,7 +10557,7 @@
         <v>0</v>
       </c>
       <c r="Q179">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="180" spans="1:18">
@@ -10607,7 +10607,7 @@
         <v>1</v>
       </c>
       <c r="Q180">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="R180">
         <v>25</v>
@@ -10657,7 +10657,7 @@
         <v>0</v>
       </c>
       <c r="Q181">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="182" spans="1:18">
@@ -10707,7 +10707,7 @@
         <v>1</v>
       </c>
       <c r="Q182">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="R182">
         <v>24</v>
@@ -10760,7 +10760,7 @@
         <v>1</v>
       </c>
       <c r="Q183">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="R183">
         <v>17</v>
@@ -10813,7 +10813,7 @@
         <v>0</v>
       </c>
       <c r="Q184">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="185" spans="1:18">
@@ -10863,7 +10863,7 @@
         <v>1</v>
       </c>
       <c r="Q185">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="R185">
         <v>7</v>
@@ -10913,7 +10913,7 @@
         <v>0</v>
       </c>
       <c r="Q186">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="187" spans="1:18">
@@ -10960,7 +10960,7 @@
         <v>0</v>
       </c>
       <c r="Q187">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="188" spans="1:18">
@@ -11007,7 +11007,7 @@
         <v>0</v>
       </c>
       <c r="Q188">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="189" spans="1:18">
@@ -11054,7 +11054,7 @@
         <v>0</v>
       </c>
       <c r="Q189">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="190" spans="1:18">
@@ -11101,7 +11101,7 @@
         <v>0</v>
       </c>
       <c r="Q190">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="191" spans="1:18">
@@ -11151,7 +11151,7 @@
         <v>1</v>
       </c>
       <c r="Q191">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="R191">
         <v>19</v>
@@ -11204,7 +11204,7 @@
         <v>0</v>
       </c>
       <c r="Q192">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="193" spans="1:18">
@@ -11254,7 +11254,7 @@
         <v>1</v>
       </c>
       <c r="Q193">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="R193">
         <v>7</v>
@@ -11307,7 +11307,7 @@
         <v>1</v>
       </c>
       <c r="Q194">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="R194">
         <v>21</v>
@@ -11357,7 +11357,7 @@
         <v>0</v>
       </c>
       <c r="Q195">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="196" spans="1:18">
@@ -11407,7 +11407,7 @@
         <v>1</v>
       </c>
       <c r="Q196">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="R196">
         <v>9</v>
@@ -11460,7 +11460,7 @@
         <v>0</v>
       </c>
       <c r="Q197">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="198" spans="1:18">
@@ -11507,7 +11507,7 @@
         <v>0</v>
       </c>
       <c r="Q198">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="199" spans="1:18">
@@ -11554,7 +11554,7 @@
         <v>0</v>
       </c>
       <c r="Q199">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="200" spans="1:18">
@@ -11601,7 +11601,7 @@
         <v>0</v>
       </c>
       <c r="Q200">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="201" spans="1:18">
@@ -11648,7 +11648,7 @@
         <v>0</v>
       </c>
       <c r="Q201">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="202" spans="1:18">
@@ -11695,7 +11695,7 @@
         <v>0</v>
       </c>
       <c r="Q202">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="203" spans="1:18">
@@ -11742,7 +11742,7 @@
         <v>0</v>
       </c>
       <c r="Q203">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="204" spans="1:18">
@@ -11789,7 +11789,7 @@
         <v>0</v>
       </c>
       <c r="Q204">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="205" spans="1:18">
@@ -11839,7 +11839,7 @@
         <v>1</v>
       </c>
       <c r="Q205">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="R205">
         <v>14</v>
@@ -11892,7 +11892,7 @@
         <v>0</v>
       </c>
       <c r="Q206">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="207" spans="1:18">
@@ -11939,7 +11939,7 @@
         <v>0</v>
       </c>
       <c r="Q207">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="208" spans="1:18">
@@ -11986,7 +11986,7 @@
         <v>0</v>
       </c>
       <c r="Q208">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="209" spans="1:18">
@@ -12036,7 +12036,7 @@
         <v>1</v>
       </c>
       <c r="Q209">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="R209">
         <v>14</v>
@@ -12089,7 +12089,7 @@
         <v>0</v>
       </c>
       <c r="Q210">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="211" spans="1:18">
@@ -12139,7 +12139,7 @@
         <v>1</v>
       </c>
       <c r="Q211">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="R211">
         <v>13</v>
@@ -12189,7 +12189,7 @@
         <v>0</v>
       </c>
       <c r="Q212">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="213" spans="1:18">
@@ -12239,7 +12239,7 @@
         <v>1</v>
       </c>
       <c r="Q213">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="R213">
         <v>20</v>
@@ -12292,7 +12292,7 @@
         <v>0</v>
       </c>
       <c r="Q214">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="215" spans="1:18">
@@ -12342,7 +12342,7 @@
         <v>1</v>
       </c>
       <c r="Q215">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="R215">
         <v>14</v>
@@ -12395,7 +12395,7 @@
         <v>0</v>
       </c>
       <c r="Q216">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="217" spans="1:18">
@@ -12442,7 +12442,7 @@
         <v>0</v>
       </c>
       <c r="Q217">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="218" spans="1:18">
@@ -12489,7 +12489,7 @@
         <v>0</v>
       </c>
       <c r="Q218">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="219" spans="1:18">
@@ -12536,7 +12536,7 @@
         <v>0</v>
       </c>
       <c r="Q219">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="220" spans="1:18">
@@ -12583,7 +12583,7 @@
         <v>0</v>
       </c>
       <c r="Q220">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="221" spans="1:18">
@@ -12633,7 +12633,7 @@
         <v>1</v>
       </c>
       <c r="Q221">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="R221">
         <v>24</v>
@@ -12686,7 +12686,7 @@
         <v>1</v>
       </c>
       <c r="Q222">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="R222">
         <v>16</v>
@@ -12736,7 +12736,7 @@
         <v>0</v>
       </c>
       <c r="Q223">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="224" spans="1:18">
@@ -12783,7 +12783,7 @@
         <v>0</v>
       </c>
       <c r="Q224">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="225" spans="1:18">
@@ -12833,7 +12833,7 @@
         <v>1</v>
       </c>
       <c r="Q225">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="R225">
         <v>29</v>
@@ -12886,7 +12886,7 @@
         <v>0</v>
       </c>
       <c r="Q226">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="227" spans="1:18">
@@ -12933,7 +12933,7 @@
         <v>0</v>
       </c>
       <c r="Q227">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="228" spans="1:18">
@@ -12983,7 +12983,7 @@
         <v>0</v>
       </c>
       <c r="Q228">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="229" spans="1:18">
@@ -13033,7 +13033,7 @@
         <v>1</v>
       </c>
       <c r="Q229">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="R229">
         <v>16</v>
@@ -13080,7 +13080,7 @@
         <v>0</v>
       </c>
       <c r="Q230">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="231" spans="1:18">
@@ -13127,7 +13127,7 @@
         <v>0</v>
       </c>
       <c r="Q231">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="232" spans="1:18">
@@ -13174,7 +13174,7 @@
         <v>0</v>
       </c>
       <c r="Q232">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="233" spans="1:18">
@@ -13224,7 +13224,7 @@
         <v>1</v>
       </c>
       <c r="Q233">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="R233">
         <v>24</v>
@@ -13274,7 +13274,7 @@
         <v>0</v>
       </c>
       <c r="Q234">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="235" spans="1:18">
@@ -13324,7 +13324,7 @@
         <v>1</v>
       </c>
       <c r="Q235">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="R235">
         <v>21</v>
@@ -13374,7 +13374,7 @@
         <v>0</v>
       </c>
       <c r="Q236">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="237" spans="1:18">
@@ -13421,7 +13421,7 @@
         <v>0</v>
       </c>
       <c r="Q237">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="238" spans="1:18">
@@ -13468,7 +13468,7 @@
         <v>0</v>
       </c>
       <c r="Q238">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="239" spans="1:18">
@@ -13515,7 +13515,7 @@
         <v>0</v>
       </c>
       <c r="Q239">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="240" spans="1:18">
@@ -13562,7 +13562,7 @@
         <v>0</v>
       </c>
       <c r="Q240">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="241" spans="1:18">
@@ -13609,7 +13609,7 @@
         <v>0</v>
       </c>
       <c r="Q241">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="242" spans="1:18">
@@ -13656,7 +13656,7 @@
         <v>0</v>
       </c>
       <c r="Q242">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="243" spans="1:18">
@@ -13706,7 +13706,7 @@
         <v>0</v>
       </c>
       <c r="Q243">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="244" spans="1:18">
@@ -13756,7 +13756,7 @@
         <v>1</v>
       </c>
       <c r="Q244">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="R244">
         <v>17</v>
@@ -13809,7 +13809,7 @@
         <v>0</v>
       </c>
       <c r="Q245">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="246" spans="1:18">
@@ -13859,7 +13859,7 @@
         <v>1</v>
       </c>
       <c r="Q246">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="R246">
         <v>22</v>
@@ -13912,7 +13912,7 @@
         <v>0</v>
       </c>
       <c r="Q247">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="248" spans="1:18">
@@ -13962,7 +13962,7 @@
         <v>1</v>
       </c>
       <c r="Q248">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="R248">
         <v>5</v>
@@ -14012,7 +14012,7 @@
         <v>0</v>
       </c>
       <c r="Q249">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="250" spans="1:18">
@@ -14056,7 +14056,7 @@
         <v>0</v>
       </c>
       <c r="Q250">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="251" spans="1:18">
@@ -14103,7 +14103,7 @@
         <v>0</v>
       </c>
       <c r="Q251">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="252" spans="1:18">
@@ -14150,7 +14150,7 @@
         <v>0</v>
       </c>
       <c r="Q252">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="253" spans="1:18">
@@ -14197,7 +14197,7 @@
         <v>0</v>
       </c>
       <c r="Q253">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="254" spans="1:18">
@@ -14244,7 +14244,7 @@
         <v>0</v>
       </c>
       <c r="Q254">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="255" spans="1:18">
@@ -14291,7 +14291,7 @@
         <v>0</v>
       </c>
       <c r="Q255">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="256" spans="1:18">
@@ -14338,7 +14338,7 @@
         <v>0</v>
       </c>
       <c r="Q256">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="257" spans="1:18">
@@ -14385,7 +14385,7 @@
         <v>0</v>
       </c>
       <c r="Q257">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="258" spans="1:18">
@@ -14432,7 +14432,7 @@
         <v>0</v>
       </c>
       <c r="Q258">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="259" spans="1:18">
@@ -14479,7 +14479,7 @@
         <v>0</v>
       </c>
       <c r="Q259">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="260" spans="1:18">
@@ -14526,7 +14526,7 @@
         <v>0</v>
       </c>
       <c r="Q260">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="261" spans="1:18">
@@ -14573,7 +14573,7 @@
         <v>0</v>
       </c>
       <c r="Q261">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="262" spans="1:18">
@@ -14620,7 +14620,7 @@
         <v>0</v>
       </c>
       <c r="Q262">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="263" spans="1:18">
@@ -14667,7 +14667,7 @@
         <v>0</v>
       </c>
       <c r="Q263">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="264" spans="1:18">
@@ -14717,7 +14717,7 @@
         <v>1</v>
       </c>
       <c r="Q264">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="R264">
         <v>26</v>
@@ -14767,7 +14767,7 @@
         <v>0</v>
       </c>
       <c r="Q265">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="266" spans="1:18">
@@ -14814,7 +14814,7 @@
         <v>0</v>
       </c>
       <c r="Q266">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="267" spans="1:18">
@@ -14861,7 +14861,7 @@
         <v>0</v>
       </c>
       <c r="Q267">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="268" spans="1:18">
@@ -14908,7 +14908,7 @@
         <v>0</v>
       </c>
       <c r="Q268">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="269" spans="1:18">
@@ -14955,7 +14955,7 @@
         <v>0</v>
       </c>
       <c r="Q269">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="270" spans="1:18">
@@ -15005,7 +15005,7 @@
         <v>1</v>
       </c>
       <c r="Q270">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="R270">
         <v>5</v>
@@ -15049,10 +15049,10 @@
         <v>1</v>
       </c>
       <c r="P271" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q271">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="272" spans="1:18">
@@ -15099,7 +15099,7 @@
         <v>0</v>
       </c>
       <c r="Q272">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="273" spans="1:18">
@@ -15146,7 +15146,7 @@
         <v>0</v>
       </c>
       <c r="Q273">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="274" spans="1:18">
@@ -15193,7 +15193,7 @@
         <v>0</v>
       </c>
       <c r="Q274">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="275" spans="1:18">
@@ -15240,7 +15240,7 @@
         <v>0</v>
       </c>
       <c r="Q275">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="276" spans="1:18">
@@ -15287,7 +15287,7 @@
         <v>0</v>
       </c>
       <c r="Q276">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="277" spans="1:18">
@@ -15334,7 +15334,7 @@
         <v>0</v>
       </c>
       <c r="Q277">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="278" spans="1:18">
@@ -15381,7 +15381,7 @@
         <v>0</v>
       </c>
       <c r="Q278">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="279" spans="1:18">
@@ -15428,7 +15428,7 @@
         <v>0</v>
       </c>
       <c r="Q279">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="280" spans="1:18">
@@ -15469,10 +15469,10 @@
         <v>1</v>
       </c>
       <c r="P280" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q280">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="281" spans="1:18">
@@ -15522,7 +15522,7 @@
         <v>1</v>
       </c>
       <c r="Q281">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="R281">
         <v>16</v>
@@ -15572,7 +15572,7 @@
         <v>0</v>
       </c>
       <c r="Q282">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="283" spans="1:18">
@@ -15622,7 +15622,7 @@
         <v>1</v>
       </c>
       <c r="Q283">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="R283">
         <v>21</v>
@@ -15675,7 +15675,7 @@
         <v>1</v>
       </c>
       <c r="Q284">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="R284">
         <v>18</v>
@@ -15725,7 +15725,7 @@
         <v>0</v>
       </c>
       <c r="Q285">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="286" spans="1:18">
@@ -15772,7 +15772,7 @@
         <v>0</v>
       </c>
       <c r="Q286">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="287" spans="1:18">
@@ -15822,7 +15822,7 @@
         <v>1</v>
       </c>
       <c r="Q287">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="R287">
         <v>21</v>
@@ -15872,7 +15872,7 @@
         <v>0</v>
       </c>
       <c r="Q288">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="289" spans="1:18">
@@ -15919,7 +15919,7 @@
         <v>0</v>
       </c>
       <c r="Q289">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="290" spans="1:18">
@@ -15966,7 +15966,7 @@
         <v>0</v>
       </c>
       <c r="Q290">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="291" spans="1:18">
@@ -16016,7 +16016,7 @@
         <v>0</v>
       </c>
       <c r="Q291">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="292" spans="1:18">
@@ -16066,7 +16066,7 @@
         <v>1</v>
       </c>
       <c r="Q292">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="R292">
         <v>28</v>
@@ -16119,7 +16119,7 @@
         <v>1</v>
       </c>
       <c r="Q293">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="R293">
         <v>15</v>
@@ -16172,7 +16172,7 @@
         <v>0</v>
       </c>
       <c r="Q294">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="295" spans="1:18">
@@ -16219,7 +16219,7 @@
         <v>0</v>
       </c>
       <c r="Q295">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="296" spans="1:18">
@@ -16266,7 +16266,7 @@
         <v>0</v>
       </c>
       <c r="Q296">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="297" spans="1:18">
@@ -16313,7 +16313,7 @@
         <v>0</v>
       </c>
       <c r="Q297">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="298" spans="1:18">
@@ -16360,7 +16360,7 @@
         <v>0</v>
       </c>
       <c r="Q298">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="299" spans="1:18">
@@ -16410,7 +16410,7 @@
         <v>1</v>
       </c>
       <c r="Q299">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="R299">
         <v>9</v>
@@ -16463,7 +16463,7 @@
         <v>0</v>
       </c>
       <c r="Q300">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="301" spans="1:18">
@@ -16513,7 +16513,7 @@
         <v>1</v>
       </c>
       <c r="Q301">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="R301">
         <v>16</v>
@@ -16563,7 +16563,7 @@
         <v>0</v>
       </c>
       <c r="Q302">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="303" spans="1:18">
@@ -16610,7 +16610,7 @@
         <v>0</v>
       </c>
       <c r="Q303">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="304" spans="1:18">
@@ -16657,7 +16657,7 @@
         <v>0</v>
       </c>
       <c r="Q304">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="305" spans="1:18">
@@ -16704,7 +16704,7 @@
         <v>0</v>
       </c>
       <c r="Q305">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="306" spans="1:18">
@@ -16754,7 +16754,7 @@
         <v>0</v>
       </c>
       <c r="Q306">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="307" spans="1:18">
@@ -16804,7 +16804,7 @@
         <v>1</v>
       </c>
       <c r="Q307">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="R307">
         <v>30</v>
@@ -16854,7 +16854,7 @@
         <v>0</v>
       </c>
       <c r="Q308">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="309" spans="1:18">
@@ -16901,7 +16901,7 @@
         <v>0</v>
       </c>
       <c r="Q309">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="310" spans="1:18">
@@ -16948,7 +16948,7 @@
         <v>0</v>
       </c>
       <c r="Q310">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="311" spans="1:18">
@@ -16998,7 +16998,7 @@
         <v>1</v>
       </c>
       <c r="Q311">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="R311">
         <v>14</v>
@@ -17051,7 +17051,7 @@
         <v>0</v>
       </c>
       <c r="Q312">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="313" spans="1:18">
@@ -17101,7 +17101,7 @@
         <v>1</v>
       </c>
       <c r="Q313">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="R313">
         <v>19</v>
@@ -17151,7 +17151,7 @@
         <v>0</v>
       </c>
       <c r="Q314">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="315" spans="1:18">
@@ -17201,7 +17201,7 @@
         <v>1</v>
       </c>
       <c r="Q315">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="R315">
         <v>17</v>
@@ -17254,7 +17254,7 @@
         <v>1</v>
       </c>
       <c r="Q316">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="R316">
         <v>28</v>
@@ -17307,7 +17307,7 @@
         <v>0</v>
       </c>
       <c r="Q317">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="318" spans="1:18">
@@ -17357,7 +17357,7 @@
         <v>1</v>
       </c>
       <c r="Q318">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="R318">
         <v>13</v>
@@ -17407,7 +17407,7 @@
         <v>0</v>
       </c>
       <c r="Q319">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="320" spans="1:18">
@@ -17457,7 +17457,7 @@
         <v>1</v>
       </c>
       <c r="Q320">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="R320">
         <v>23</v>
@@ -17507,7 +17507,7 @@
         <v>0</v>
       </c>
       <c r="Q321">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="322" spans="1:18">
@@ -17554,7 +17554,7 @@
         <v>0</v>
       </c>
       <c r="Q322">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="323" spans="1:18">
@@ -17601,7 +17601,7 @@
         <v>0</v>
       </c>
       <c r="Q323">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="324" spans="1:18">
@@ -17648,7 +17648,7 @@
         <v>0</v>
       </c>
       <c r="Q324">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="325" spans="1:18">
@@ -17695,7 +17695,7 @@
         <v>0</v>
       </c>
       <c r="Q325">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="326" spans="1:18">
@@ -17742,7 +17742,7 @@
         <v>0</v>
       </c>
       <c r="Q326">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="327" spans="1:18">
@@ -17789,7 +17789,7 @@
         <v>0</v>
       </c>
       <c r="Q327">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="328" spans="1:18">
@@ -17836,7 +17836,7 @@
         <v>0</v>
       </c>
       <c r="Q328">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="329" spans="1:18">
@@ -17883,7 +17883,7 @@
         <v>0</v>
       </c>
       <c r="Q329">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="330" spans="1:18">
@@ -17933,7 +17933,7 @@
         <v>1</v>
       </c>
       <c r="Q330">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="R330">
         <v>29</v>
@@ -17986,7 +17986,7 @@
         <v>1</v>
       </c>
       <c r="Q331">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="R331">
         <v>16</v>
@@ -18039,7 +18039,7 @@
         <v>0</v>
       </c>
       <c r="Q332">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="333" spans="1:18">
@@ -18089,7 +18089,7 @@
         <v>1</v>
       </c>
       <c r="Q333">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="R333">
         <v>4</v>
@@ -18142,7 +18142,7 @@
         <v>1</v>
       </c>
       <c r="Q334">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="R334">
         <v>16</v>
@@ -18192,7 +18192,7 @@
         <v>0</v>
       </c>
       <c r="Q335">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="336" spans="1:18">
@@ -18242,7 +18242,7 @@
         <v>0</v>
       </c>
       <c r="Q336">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="337" spans="1:18">
@@ -18289,7 +18289,7 @@
         <v>0</v>
       </c>
       <c r="Q337">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="338" spans="1:18">
@@ -18336,7 +18336,7 @@
         <v>0</v>
       </c>
       <c r="Q338">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="339" spans="1:18">
@@ -18383,7 +18383,7 @@
         <v>0</v>
       </c>
       <c r="Q339">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="340" spans="1:18">
@@ -18430,7 +18430,7 @@
         <v>0</v>
       </c>
       <c r="Q340">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="341" spans="1:18">
@@ -18477,7 +18477,7 @@
         <v>0</v>
       </c>
       <c r="Q341">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="342" spans="1:18">
@@ -18524,7 +18524,7 @@
         <v>0</v>
       </c>
       <c r="Q342">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="343" spans="1:18">
@@ -18574,7 +18574,7 @@
         <v>1</v>
       </c>
       <c r="Q343">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="R343">
         <v>28</v>
@@ -18627,7 +18627,7 @@
         <v>1</v>
       </c>
       <c r="Q344">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="R344">
         <v>17</v>
@@ -18677,7 +18677,7 @@
         <v>0</v>
       </c>
       <c r="Q345">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="346" spans="1:18">
@@ -18724,7 +18724,7 @@
         <v>0</v>
       </c>
       <c r="Q346">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="347" spans="1:18">
@@ -18771,7 +18771,7 @@
         <v>0</v>
       </c>
       <c r="Q347">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="348" spans="1:18">
@@ -18818,7 +18818,7 @@
         <v>0</v>
       </c>
       <c r="Q348">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="349" spans="1:18">
@@ -18865,7 +18865,7 @@
         <v>0</v>
       </c>
       <c r="Q349">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="350" spans="1:18">
@@ -18912,7 +18912,7 @@
         <v>0</v>
       </c>
       <c r="Q350">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="351" spans="1:18">
@@ -18959,7 +18959,7 @@
         <v>0</v>
       </c>
       <c r="Q351">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="352" spans="1:18">
@@ -19009,7 +19009,7 @@
         <v>1</v>
       </c>
       <c r="Q352">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="R352">
         <v>21</v>
@@ -19062,7 +19062,7 @@
         <v>0</v>
       </c>
       <c r="Q353">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="354" spans="1:18">
@@ -19112,7 +19112,7 @@
         <v>1</v>
       </c>
       <c r="Q354">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="R354">
         <v>3</v>
@@ -19162,7 +19162,7 @@
         <v>0</v>
       </c>
       <c r="Q355">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="356" spans="1:18">
@@ -19209,7 +19209,7 @@
         <v>0</v>
       </c>
       <c r="Q356">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="357" spans="1:18">
@@ -19256,7 +19256,7 @@
         <v>0</v>
       </c>
       <c r="Q357">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="358" spans="1:18">
@@ -19306,7 +19306,7 @@
         <v>1</v>
       </c>
       <c r="Q358">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="R358">
         <v>0</v>
@@ -19356,7 +19356,7 @@
         <v>0</v>
       </c>
       <c r="Q359">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="360" spans="1:18">
@@ -19403,7 +19403,7 @@
         <v>0</v>
       </c>
       <c r="Q360">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="361" spans="1:18">
@@ -19450,7 +19450,7 @@
         <v>0</v>
       </c>
       <c r="Q361">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="362" spans="1:18">
@@ -19497,7 +19497,7 @@
         <v>0</v>
       </c>
       <c r="Q362">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="363" spans="1:18">
@@ -19544,7 +19544,7 @@
         <v>0</v>
       </c>
       <c r="Q363">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="364" spans="1:18">
@@ -19594,7 +19594,7 @@
         <v>0</v>
       </c>
       <c r="Q364">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="365" spans="1:18">
@@ -19641,7 +19641,7 @@
         <v>1</v>
       </c>
       <c r="Q365">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="R365">
         <v>24</v>
@@ -19691,7 +19691,7 @@
         <v>0</v>
       </c>
       <c r="Q366">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="367" spans="1:18">
@@ -19738,7 +19738,7 @@
         <v>0</v>
       </c>
       <c r="Q367">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="368" spans="1:18">
@@ -19785,7 +19785,7 @@
         <v>0</v>
       </c>
       <c r="Q368">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="369" spans="1:18">
@@ -19832,7 +19832,7 @@
         <v>0</v>
       </c>
       <c r="Q369">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="370" spans="1:18">
@@ -19879,7 +19879,7 @@
         <v>0</v>
       </c>
       <c r="Q370">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="371" spans="1:18">
@@ -19926,7 +19926,7 @@
         <v>0</v>
       </c>
       <c r="Q371">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="372" spans="1:18">
@@ -19973,7 +19973,7 @@
         <v>0</v>
       </c>
       <c r="Q372">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="373" spans="1:18">
@@ -20020,7 +20020,7 @@
         <v>0</v>
       </c>
       <c r="Q373">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="374" spans="1:18">
@@ -20067,7 +20067,7 @@
         <v>0</v>
       </c>
       <c r="Q374">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="375" spans="1:18">
@@ -20117,7 +20117,7 @@
         <v>1</v>
       </c>
       <c r="Q375">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="R375">
         <v>11</v>
@@ -20170,7 +20170,7 @@
         <v>1</v>
       </c>
       <c r="Q376">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="R376">
         <v>12</v>
@@ -20223,7 +20223,7 @@
         <v>1</v>
       </c>
       <c r="Q377">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="R377">
         <v>15</v>
@@ -20276,7 +20276,7 @@
         <v>0</v>
       </c>
       <c r="Q378">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="379" spans="1:18">
@@ -20323,7 +20323,7 @@
         <v>0</v>
       </c>
       <c r="Q379">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="380" spans="1:18">
@@ -20370,7 +20370,7 @@
         <v>0</v>
       </c>
       <c r="Q380">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="381" spans="1:18">
@@ -20417,7 +20417,7 @@
         <v>0</v>
       </c>
       <c r="Q381">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="382" spans="1:18">
@@ -20467,7 +20467,7 @@
         <v>1</v>
       </c>
       <c r="Q382">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="R382">
         <v>3</v>
@@ -20520,7 +20520,7 @@
         <v>1</v>
       </c>
       <c r="Q383">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="R383">
         <v>8</v>
@@ -20570,7 +20570,7 @@
         <v>0</v>
       </c>
       <c r="Q384">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="385" spans="1:18">
@@ -20617,7 +20617,7 @@
         <v>0</v>
       </c>
       <c r="Q385">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="386" spans="1:18">
@@ -20664,7 +20664,7 @@
         <v>0</v>
       </c>
       <c r="Q386">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="387" spans="1:18">
@@ -20711,7 +20711,7 @@
         <v>0</v>
       </c>
       <c r="Q387">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="388" spans="1:18">
@@ -20761,7 +20761,7 @@
         <v>1</v>
       </c>
       <c r="Q388">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="R388">
         <v>3</v>
@@ -20811,7 +20811,7 @@
         <v>0</v>
       </c>
       <c r="Q389">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="390" spans="1:18">
@@ -20858,7 +20858,7 @@
         <v>0</v>
       </c>
       <c r="Q390">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="391" spans="1:18">
@@ -20908,7 +20908,7 @@
         <v>1</v>
       </c>
       <c r="Q391">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="R391">
         <v>13</v>
@@ -20961,7 +20961,7 @@
         <v>0</v>
       </c>
       <c r="Q392">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="393" spans="1:18">
@@ -21005,7 +21005,7 @@
         <v>0</v>
       </c>
       <c r="Q393">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="394" spans="1:18">
@@ -21055,7 +21055,7 @@
         <v>1</v>
       </c>
       <c r="Q394">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="R394">
         <v>2</v>
@@ -21105,7 +21105,7 @@
         <v>0</v>
       </c>
       <c r="Q395">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="396" spans="1:18">
@@ -21155,7 +21155,7 @@
         <v>0</v>
       </c>
       <c r="Q396">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="397" spans="1:18">
@@ -21205,7 +21205,7 @@
         <v>1</v>
       </c>
       <c r="Q397">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="R397">
         <v>23</v>
@@ -21258,7 +21258,7 @@
         <v>1</v>
       </c>
       <c r="Q398">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="R398">
         <v>14</v>
@@ -21308,7 +21308,7 @@
         <v>0</v>
       </c>
       <c r="Q399">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="400" spans="1:18">
@@ -21358,7 +21358,7 @@
         <v>1</v>
       </c>
       <c r="Q400">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="R400">
         <v>19</v>
@@ -21408,7 +21408,7 @@
         <v>0</v>
       </c>
       <c r="Q401">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="402" spans="1:18">
@@ -21458,7 +21458,7 @@
         <v>1</v>
       </c>
       <c r="Q402">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="R402">
         <v>26</v>
@@ -21514,7 +21514,7 @@
         <v>1</v>
       </c>
       <c r="Q403">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="R403">
         <v>1</v>
@@ -21558,10 +21558,10 @@
         <v>1</v>
       </c>
       <c r="P404" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q404">
-        <v>121</v>
+        <v>115</v>
       </c>
     </row>
     <row r="405" spans="1:18">
@@ -21608,7 +21608,7 @@
         <v>0</v>
       </c>
       <c r="Q405">
-        <v>121</v>
+        <v>115</v>
       </c>
     </row>
     <row r="406" spans="1:18">
@@ -21655,7 +21655,7 @@
         <v>0</v>
       </c>
       <c r="Q406">
-        <v>121</v>
+        <v>115</v>
       </c>
     </row>
     <row r="407" spans="1:18">
@@ -21702,7 +21702,7 @@
         <v>0</v>
       </c>
       <c r="Q407">
-        <v>121</v>
+        <v>115</v>
       </c>
     </row>
     <row r="408" spans="1:18">
@@ -21749,7 +21749,7 @@
         <v>0</v>
       </c>
       <c r="Q408">
-        <v>121</v>
+        <v>115</v>
       </c>
     </row>
     <row r="409" spans="1:18">
@@ -21790,10 +21790,10 @@
         <v>1</v>
       </c>
       <c r="P409" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q409">
-        <v>122</v>
+        <v>115</v>
       </c>
     </row>
     <row r="410" spans="1:18">
@@ -21840,7 +21840,7 @@
         <v>0</v>
       </c>
       <c r="Q410">
-        <v>122</v>
+        <v>115</v>
       </c>
     </row>
     <row r="411" spans="1:18">
@@ -21887,7 +21887,7 @@
         <v>0</v>
       </c>
       <c r="Q411">
-        <v>122</v>
+        <v>115</v>
       </c>
     </row>
     <row r="412" spans="1:18">
@@ -21937,7 +21937,7 @@
         <v>1</v>
       </c>
       <c r="Q412">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="R412">
         <v>26</v>
@@ -21987,7 +21987,7 @@
         <v>0</v>
       </c>
       <c r="Q413">
-        <v>123</v>
+        <v>116</v>
       </c>
     </row>
     <row r="414" spans="1:18">
@@ -22037,7 +22037,7 @@
         <v>1</v>
       </c>
       <c r="Q414">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="R414">
         <v>16</v>
@@ -22087,7 +22087,7 @@
         <v>0</v>
       </c>
       <c r="Q415">
-        <v>124</v>
+        <v>117</v>
       </c>
     </row>
     <row r="416" spans="1:18">
@@ -22134,7 +22134,7 @@
         <v>0</v>
       </c>
       <c r="Q416">
-        <v>124</v>
+        <v>117</v>
       </c>
     </row>
     <row r="417" spans="1:18">
@@ -22184,7 +22184,7 @@
         <v>0</v>
       </c>
       <c r="Q417">
-        <v>124</v>
+        <v>117</v>
       </c>
     </row>
     <row r="418" spans="1:18">
@@ -22234,7 +22234,7 @@
         <v>1</v>
       </c>
       <c r="Q418">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="R418">
         <v>14</v>
@@ -22287,7 +22287,7 @@
         <v>0</v>
       </c>
       <c r="Q419">
-        <v>125</v>
+        <v>118</v>
       </c>
     </row>
     <row r="420" spans="1:18">
@@ -22337,7 +22337,7 @@
         <v>1</v>
       </c>
       <c r="Q420">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="R420">
         <v>3</v>
@@ -22390,7 +22390,7 @@
         <v>0</v>
       </c>
       <c r="Q421">
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
     <row r="422" spans="1:18">
@@ -22437,7 +22437,7 @@
         <v>0</v>
       </c>
       <c r="Q422">
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
     <row r="423" spans="1:18">
@@ -22487,7 +22487,7 @@
         <v>0</v>
       </c>
       <c r="Q423">
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
     <row r="424" spans="1:18">
@@ -22537,7 +22537,7 @@
         <v>1</v>
       </c>
       <c r="Q424">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="R424">
         <v>17</v>
@@ -22587,7 +22587,7 @@
         <v>0</v>
       </c>
       <c r="Q425">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="426" spans="1:18">
@@ -22637,7 +22637,7 @@
         <v>1</v>
       </c>
       <c r="Q426">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="R426">
         <v>8</v>
@@ -22690,7 +22690,7 @@
         <v>0</v>
       </c>
       <c r="Q427">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="428" spans="1:18">
@@ -22740,7 +22740,7 @@
         <v>1</v>
       </c>
       <c r="Q428">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="R428">
         <v>19</v>
@@ -22790,7 +22790,7 @@
         <v>0</v>
       </c>
       <c r="Q429">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="430" spans="1:18">
@@ -22840,7 +22840,7 @@
         <v>0</v>
       </c>
       <c r="Q430">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="431" spans="1:18">
@@ -22887,7 +22887,7 @@
         <v>0</v>
       </c>
       <c r="Q431">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="432" spans="1:18">
@@ -22934,7 +22934,7 @@
         <v>0</v>
       </c>
       <c r="Q432">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="433" spans="1:18">
@@ -22981,7 +22981,7 @@
         <v>0</v>
       </c>
       <c r="Q433">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="434" spans="1:18">
@@ -23028,7 +23028,7 @@
         <v>0</v>
       </c>
       <c r="Q434">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="435" spans="1:18">
@@ -23075,7 +23075,7 @@
         <v>0</v>
       </c>
       <c r="Q435">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="436" spans="1:18">
@@ -23122,7 +23122,7 @@
         <v>0</v>
       </c>
       <c r="Q436">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="437" spans="1:18">
@@ -23169,7 +23169,7 @@
         <v>0</v>
       </c>
       <c r="Q437">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="438" spans="1:18">
@@ -23216,7 +23216,7 @@
         <v>0</v>
       </c>
       <c r="Q438">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="439" spans="1:18">
@@ -23266,7 +23266,7 @@
         <v>1</v>
       </c>
       <c r="Q439">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="R439">
         <v>34</v>
@@ -23319,7 +23319,7 @@
         <v>1</v>
       </c>
       <c r="Q440">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="R440">
         <v>16</v>
@@ -23372,7 +23372,7 @@
         <v>0</v>
       </c>
       <c r="Q441">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="442" spans="1:18">
@@ -23422,7 +23422,7 @@
         <v>1</v>
       </c>
       <c r="Q442">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="R442">
         <v>17</v>
@@ -23475,7 +23475,7 @@
         <v>0</v>
       </c>
       <c r="Q443">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="444" spans="1:18">
@@ -23522,7 +23522,7 @@
         <v>0</v>
       </c>
       <c r="Q444">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="445" spans="1:18">
@@ -23572,7 +23572,7 @@
         <v>0</v>
       </c>
       <c r="Q445">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="446" spans="1:18">
@@ -23619,7 +23619,7 @@
         <v>0</v>
       </c>
       <c r="Q446">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="447" spans="1:18">
@@ -23666,7 +23666,7 @@
         <v>0</v>
       </c>
       <c r="Q447">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="448" spans="1:18">
@@ -23716,7 +23716,7 @@
         <v>1</v>
       </c>
       <c r="Q448">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="R448">
         <v>35</v>
@@ -23769,7 +23769,7 @@
         <v>1</v>
       </c>
       <c r="Q449">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="R449">
         <v>28</v>
@@ -23822,7 +23822,7 @@
         <v>0</v>
       </c>
       <c r="Q450">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="451" spans="1:18">
@@ -23869,7 +23869,7 @@
         <v>0</v>
       </c>
       <c r="Q451">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="452" spans="1:18">
@@ -23916,7 +23916,7 @@
         <v>0</v>
       </c>
       <c r="Q452">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="453" spans="1:18">
@@ -23966,7 +23966,7 @@
         <v>1</v>
       </c>
       <c r="Q453">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="R453">
         <v>16</v>
@@ -24016,7 +24016,7 @@
         <v>0</v>
       </c>
       <c r="Q454">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="455" spans="1:18">
@@ -24063,7 +24063,7 @@
         <v>0</v>
       </c>
       <c r="Q455">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="456" spans="1:18">
@@ -24110,7 +24110,7 @@
         <v>0</v>
       </c>
       <c r="Q456">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="457" spans="1:18">
@@ -24160,7 +24160,7 @@
         <v>1</v>
       </c>
       <c r="Q457">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="R457">
         <v>7</v>
@@ -24210,7 +24210,7 @@
         <v>0</v>
       </c>
       <c r="Q458">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="459" spans="1:18">
@@ -24260,7 +24260,7 @@
         <v>1</v>
       </c>
       <c r="Q459">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="R459">
         <v>6</v>
@@ -24310,7 +24310,7 @@
         <v>0</v>
       </c>
       <c r="Q460">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="461" spans="1:18">
@@ -24357,7 +24357,7 @@
         <v>0</v>
       </c>
       <c r="Q461">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="462" spans="1:18">
@@ -24404,7 +24404,7 @@
         <v>0</v>
       </c>
       <c r="Q462">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="463" spans="1:18">
@@ -24451,7 +24451,7 @@
         <v>0</v>
       </c>
       <c r="Q463">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="464" spans="1:18">
@@ -24501,7 +24501,7 @@
         <v>1</v>
       </c>
       <c r="Q464">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="R464">
         <v>13</v>
@@ -24554,7 +24554,7 @@
         <v>1</v>
       </c>
       <c r="Q465">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="R465">
         <v>19</v>
@@ -24604,7 +24604,7 @@
         <v>0</v>
       </c>
       <c r="Q466">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="467" spans="1:18">
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="Q467">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="468" spans="1:18">
@@ -24695,7 +24695,7 @@
         <v>0</v>
       </c>
       <c r="Q468">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="469" spans="1:18">
@@ -24742,7 +24742,7 @@
         <v>0</v>
       </c>
       <c r="Q469">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="470" spans="1:18">
@@ -24792,7 +24792,7 @@
         <v>1</v>
       </c>
       <c r="Q470">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="R470">
         <v>17</v>
@@ -24845,7 +24845,7 @@
         <v>0</v>
       </c>
       <c r="Q471">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="472" spans="1:18">
@@ -24895,7 +24895,7 @@
         <v>1</v>
       </c>
       <c r="Q472">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="R472">
         <v>19</v>
@@ -24945,7 +24945,7 @@
         <v>0</v>
       </c>
       <c r="Q473">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="474" spans="1:18">
@@ -24992,7 +24992,7 @@
         <v>0</v>
       </c>
       <c r="Q474">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="475" spans="1:18">
@@ -25042,7 +25042,7 @@
         <v>1</v>
       </c>
       <c r="Q475">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="R475">
         <v>0</v>
@@ -25095,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="Q476">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="477" spans="1:18">
@@ -25142,7 +25142,7 @@
         <v>0</v>
       </c>
       <c r="Q477">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="478" spans="1:18">
@@ -25189,7 +25189,7 @@
         <v>0</v>
       </c>
       <c r="Q478">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="479" spans="1:18">
@@ -25236,7 +25236,7 @@
         <v>0</v>
       </c>
       <c r="Q479">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="480" spans="1:18">
@@ -25286,7 +25286,7 @@
         <v>1</v>
       </c>
       <c r="Q480">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="R480">
         <v>12</v>
@@ -25336,7 +25336,7 @@
         <v>0</v>
       </c>
       <c r="Q481">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="482" spans="1:18">
@@ -25383,7 +25383,7 @@
         <v>0</v>
       </c>
       <c r="Q482">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="483" spans="1:18">
@@ -25430,7 +25430,7 @@
         <v>0</v>
       </c>
       <c r="Q483">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="484" spans="1:18">
@@ -25477,7 +25477,7 @@
         <v>0</v>
       </c>
       <c r="Q484">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="485" spans="1:18">
@@ -25527,7 +25527,7 @@
         <v>1</v>
       </c>
       <c r="Q485">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="R485">
         <v>20</v>
@@ -25574,7 +25574,7 @@
         <v>0</v>
       </c>
       <c r="Q486">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="487" spans="1:18">
@@ -25624,7 +25624,7 @@
         <v>1</v>
       </c>
       <c r="Q487">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="R487">
         <v>15</v>
@@ -25674,7 +25674,7 @@
         <v>0</v>
       </c>
       <c r="Q488">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="489" spans="1:18">
@@ -25721,7 +25721,7 @@
         <v>0</v>
       </c>
       <c r="Q489">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="490" spans="1:18">
@@ -25768,7 +25768,7 @@
         <v>0</v>
       </c>
       <c r="Q490">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="491" spans="1:18">
@@ -25815,7 +25815,7 @@
         <v>0</v>
       </c>
       <c r="Q491">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="492" spans="1:18">
@@ -25865,7 +25865,7 @@
         <v>1</v>
       </c>
       <c r="Q492">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="R492">
         <v>13</v>
@@ -25918,7 +25918,7 @@
         <v>1</v>
       </c>
       <c r="Q493">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="R493">
         <v>6</v>
@@ -25971,7 +25971,7 @@
         <v>1</v>
       </c>
       <c r="Q494">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="R494">
         <v>21</v>
@@ -26024,7 +26024,7 @@
         <v>0</v>
       </c>
       <c r="Q495">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="496" spans="1:18">
@@ -26071,7 +26071,7 @@
         <v>0</v>
       </c>
       <c r="Q496">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="497" spans="1:18">
@@ -26118,7 +26118,7 @@
         <v>0</v>
       </c>
       <c r="Q497">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="498" spans="1:18">
@@ -26165,7 +26165,7 @@
         <v>0</v>
       </c>
       <c r="Q498">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="499" spans="1:18">
@@ -26215,7 +26215,7 @@
         <v>1</v>
       </c>
       <c r="Q499">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="R499">
         <v>10</v>
@@ -26268,7 +26268,7 @@
         <v>0</v>
       </c>
       <c r="Q500">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="501" spans="1:18">
@@ -26315,7 +26315,7 @@
         <v>0</v>
       </c>
       <c r="Q501">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="502" spans="1:18">
@@ -26365,7 +26365,7 @@
         <v>0</v>
       </c>
       <c r="Q502">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="503" spans="1:18">
@@ -26412,7 +26412,7 @@
         <v>0</v>
       </c>
       <c r="Q503">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="504" spans="1:18">
@@ -26462,7 +26462,7 @@
         <v>0</v>
       </c>
       <c r="Q504">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="505" spans="1:18">
@@ -26512,7 +26512,7 @@
         <v>1</v>
       </c>
       <c r="Q505">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="R505">
         <v>30</v>
@@ -26562,7 +26562,7 @@
         <v>0</v>
       </c>
       <c r="Q506">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="507" spans="1:18">
@@ -26612,7 +26612,7 @@
         <v>0</v>
       </c>
       <c r="Q507">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="508" spans="1:18">
@@ -26662,7 +26662,7 @@
         <v>1</v>
       </c>
       <c r="Q508">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="R508">
         <v>11</v>
@@ -26715,7 +26715,7 @@
         <v>1</v>
       </c>
       <c r="Q509">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="R509">
         <v>18</v>
@@ -26765,7 +26765,7 @@
         <v>0</v>
       </c>
       <c r="Q510">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="511" spans="1:18">
@@ -26815,7 +26815,7 @@
         <v>1</v>
       </c>
       <c r="Q511">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="R511">
         <v>8</v>
@@ -26865,7 +26865,7 @@
         <v>0</v>
       </c>
       <c r="Q512">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="513" spans="1:18">
@@ -26909,7 +26909,7 @@
         <v>0</v>
       </c>
       <c r="Q513">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="514" spans="1:18">
@@ -26956,7 +26956,7 @@
         <v>0</v>
       </c>
       <c r="Q514">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="515" spans="1:18">
@@ -27003,7 +27003,7 @@
         <v>0</v>
       </c>
       <c r="Q515">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="516" spans="1:18">
@@ -27050,7 +27050,7 @@
         <v>0</v>
       </c>
       <c r="Q516">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="517" spans="1:18">
@@ -27097,7 +27097,7 @@
         <v>0</v>
       </c>
       <c r="Q517">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="518" spans="1:18">
@@ -27144,7 +27144,7 @@
         <v>0</v>
       </c>
       <c r="Q518">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="519" spans="1:18">
@@ -27191,7 +27191,7 @@
         <v>0</v>
       </c>
       <c r="Q519">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="520" spans="1:18">
@@ -27238,7 +27238,7 @@
         <v>0</v>
       </c>
       <c r="Q520">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="521" spans="1:18">
@@ -27288,7 +27288,7 @@
         <v>1</v>
       </c>
       <c r="Q521">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="R521">
         <v>13</v>
@@ -27341,7 +27341,7 @@
         <v>1</v>
       </c>
       <c r="Q522">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="R522">
         <v>14</v>
@@ -27391,7 +27391,7 @@
         <v>0</v>
       </c>
       <c r="Q523">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="524" spans="1:18">
@@ -27441,7 +27441,7 @@
         <v>1</v>
       </c>
       <c r="Q524">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="R524">
         <v>16</v>
@@ -27494,7 +27494,7 @@
         <v>1</v>
       </c>
       <c r="Q525">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="R525">
         <v>15</v>
@@ -27544,7 +27544,7 @@
         <v>0</v>
       </c>
       <c r="Q526">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="527" spans="1:18">
@@ -27594,7 +27594,7 @@
         <v>1</v>
       </c>
       <c r="Q527">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="R527">
         <v>5</v>
@@ -27644,7 +27644,7 @@
         <v>0</v>
       </c>
       <c r="Q528">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="529" spans="1:18">
@@ -27688,7 +27688,7 @@
         <v>0</v>
       </c>
       <c r="Q529">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="530" spans="1:18">
@@ -27738,7 +27738,7 @@
         <v>1</v>
       </c>
       <c r="Q530">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="R530">
         <v>9</v>
@@ -27788,7 +27788,7 @@
         <v>0</v>
       </c>
       <c r="Q531">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="532" spans="1:18">
@@ -27838,7 +27838,7 @@
         <v>0</v>
       </c>
       <c r="Q532">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="533" spans="1:18">
@@ -27885,7 +27885,7 @@
         <v>0</v>
       </c>
       <c r="Q533">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="534" spans="1:18">
@@ -27935,7 +27935,7 @@
         <v>1</v>
       </c>
       <c r="Q534">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="R534">
         <v>1</v>
@@ -27988,7 +27988,7 @@
         <v>1</v>
       </c>
       <c r="Q535">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="R535">
         <v>13</v>
@@ -28038,7 +28038,7 @@
         <v>0</v>
       </c>
       <c r="Q536">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="537" spans="1:18">
@@ -28088,7 +28088,7 @@
         <v>1</v>
       </c>
       <c r="Q537">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="R537">
         <v>7</v>
@@ -28132,10 +28132,10 @@
         <v>1</v>
       </c>
       <c r="P538" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q538">
-        <v>163</v>
+        <v>155</v>
       </c>
     </row>
     <row r="539" spans="1:18">
@@ -28176,7 +28176,7 @@
         <v>0</v>
       </c>
       <c r="Q539">
-        <v>163</v>
+        <v>155</v>
       </c>
     </row>
   </sheetData>
